--- a/Doc/RequisitosFuncionalesProyectoGDV.xlsx
+++ b/Doc/RequisitosFuncionalesProyectoGDV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mella\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\eclipse-workspace-tfg\proyectoGDV\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D376BF4A-AD57-4339-8317-8D3AC4477AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3FC77-4A35-4682-B604-2EC131773023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
   <si>
     <t>1.0</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mapa interactivo de los lugares y actividades turisticas mas importante asi como restaurantes </t>
+  </si>
+  <si>
+    <t>R-129</t>
+  </si>
+  <si>
+    <t>Vista Creacion Viajes</t>
+  </si>
+  <si>
+    <t>Formulario de creacion de viajes</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1249,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1715,7 +1724,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -2433,7 +2442,7 @@
       </c>
       <c r="C18">
         <f>COUNTA(Tabla1[ID])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,7 +2490,7 @@
       </c>
       <c r="C23">
         <f>COUNTIF(Requirements!$C$23:$C$54,Dashboard!B23)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,7 +2635,7 @@
       </c>
       <c r="C38">
         <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B38)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -2661,8 +2670,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,18 +3794,34 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>

--- a/Doc/RequisitosFuncionalesProyectoGDV.xlsx
+++ b/Doc/RequisitosFuncionalesProyectoGDV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\eclipse-workspace-tfg\proyectoGDV\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3FC77-4A35-4682-B604-2EC131773023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511F7AF-BEB3-4EA6-BA99-0E9D1158728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1715,7 +1715,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1724,10 +1724,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C35">
         <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B35)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C38">
         <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B38)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C39">
         <f>COUNTIF(Requirements!$J$23:$J$54,Dashboard!B39)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,7 +3160,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>40</v>
@@ -3190,7 +3190,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>40</v>
@@ -3220,7 +3220,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>40</v>
@@ -3250,7 +3250,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>39</v>
@@ -3310,7 +3310,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>40</v>
@@ -3430,7 +3430,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>40</v>
@@ -3460,7 +3460,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>40</v>
@@ -3490,7 +3490,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>38</v>
@@ -3520,7 +3520,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>39</v>
@@ -3550,7 +3550,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>38</v>
@@ -3610,7 +3610,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>37</v>
@@ -3694,7 +3694,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>39</v>
@@ -3724,7 +3724,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>39</v>
@@ -3784,7 +3784,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>37</v>
